--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_013.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_013.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295021AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Installing fuel pool gates</t>
-  </si>
-  <si>
-    <t>(295023AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Inadvertent criticality</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295016AA1.07) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Control room/local control transfer mechanisms</t>
-  </si>
-  <si>
-    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
-  </si>
-  <si>
-    <t>(295003AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Station blackout</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295025EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RFCS</t>
-  </si>
-  <si>
-    <t>(295024EK2.03) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295019AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Leak isolation</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
-  </si>
-  <si>
-    <t>(600000AK2.08) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Portable fire suppression systems</t>
-  </si>
-  <si>
-    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295014AA1.04) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295029EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295008AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(217000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Loss of differential pressure across startup level control bypass valve</t>
-  </si>
-  <si>
-    <t>(400000A2.17) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to ECCS pump rooms</t>
-  </si>
-  <si>
-    <t>(209002K3.04) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
-  </si>
-  <si>
-    <t>(239002K4.02) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Minimizes containment fatigue duty cycles resulting from relief valve cycling during decay-heat-dominant period late in an isolation transient (low-low set logic)</t>
-  </si>
-  <si>
-    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
-  </si>
-  <si>
-    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
-  </si>
-  <si>
-    <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
-  </si>
-  <si>
-    <t>(262002K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A4.02) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) SDC/RHR valves </t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291008K1.09) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Effect of racking out breakers on control and indicating circuits and removal of control power on breaker operation</t>
-  </si>
-  <si>
-    <t>(264000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Cooling water system</t>
-  </si>
-  <si>
-    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
-  </si>
-  <si>
-    <t>(211000K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core plate differential pressure</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295021AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Feeding and bleeding reactor vessel</t>
+  </si>
+  <si>
+    <t>(295037EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295027EK2.05) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Safety relief valves</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
+  </si>
+  <si>
+    <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
+  </si>
+  <si>
+    <t>(295030EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
+  </si>
+  <si>
+    <t>(295016AA1.13) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(295006AK2.04) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Turbine trip logic</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
+  </si>
+  <si>
+    <t>(295005AA2.05) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295003AA1.07) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295019AK2.03) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295022AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295002AK2.05) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295010AA2.03) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
+  </si>
+  <si>
+    <t>(209002A4.15) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(259002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
   </si>
   <si>
     <t>(215003K4.10) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM rod block signals</t>
   </si>
   <si>
-    <t>(209001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System lineup</t>
-  </si>
-  <si>
-    <t>(510000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Intake/traveling screen high differential pressure/ differential level</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(261000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(400000A2.07) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(271000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Preheater discharge temperature</t>
-  </si>
-  <si>
-    <t>(216000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(286000A4.01) Ability to manually operate and/or monitor the (SF8 FPS) FIRE PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System alarms and indicating lights</t>
-  </si>
-  <si>
-    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (291003K1.11) CONTROLLERS AND POSITIONERS (CFR: 41.7) Cautions for placing a valve controller in manual mode</t>
-  </si>
-  <si>
-    <t>(223001K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Containment vacuum relief system (Mark III)</t>
-  </si>
-  <si>
-    <t>(219000A2.12) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve logic failure</t>
-  </si>
-  <si>
-    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(226001A3.01) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Valve operation </t>
-  </si>
-  <si>
-    <t>(272000K4.03) Knowledge of (SF7, SF9 RMS) RADIATION MONITORING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Fail-safe tripping of process radiation monitoring logic during conditions of instrument failure</t>
-  </si>
-  <si>
-    <t>(233000A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(259001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292008K1.20) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of an increase in core flow on reactor power and void fraction</t>
-  </si>
-  <si>
-    <t>(293008K1.09) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Describe onset of transition boiling</t>
-  </si>
-  <si>
-    <t>(293009K1.33) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Describe the purpose of the pellet to clad gap</t>
-  </si>
-  <si>
-    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(300000K3.27) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Standby gas treatment system</t>
+  </si>
+  <si>
+    <t>(264000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Generator load limits</t>
+  </si>
+  <si>
+    <t>(223002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Containment instrumentation</t>
+  </si>
+  <si>
+    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291001K1.11) VALVES (CFR: 41.3) Operation of valves and verification of position</t>
+  </si>
+  <si>
+    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
+  </si>
+  <si>
+    <t>(262001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(215005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(510000A2.06) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Discharge strainer failure</t>
+  </si>
+  <si>
+    <t>(211000K4.05) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dispersal of boron upon injection into the vessel</t>
+  </si>
+  <si>
+    <t>(217000K2.02) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation/isolation logic</t>
+  </si>
+  <si>
+    <t>(203000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(215004K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) RPS</t>
+  </si>
+  <si>
+    <t>(209002A4.03) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Injection valve</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(218000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(201001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Pump operation</t>
+  </si>
+  <si>
+    <t>(290002K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) Residual heat removal system</t>
+  </si>
+  <si>
+    <t>(239001A4.01) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) MSIVs</t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (291004K1.23) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Functions and characteristics of positive displacement pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(256000A3.07) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) Feedwater heater level </t>
+  </si>
+  <si>
+    <t>(245000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(241000A1.26) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Governor valve limit</t>
+  </si>
+  <si>
+    <t>(290001A2.02) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Excessive outleakage</t>
+  </si>
+  <si>
+    <t>(216000K4.12) Knowledge of (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor vessel overpressure protection</t>
+  </si>
+  <si>
+    <t>(202002K2.01) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(272000K3.05) Knowledge of the effect that a loss or malfunction of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Offgas system</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
+  </si>
+  <si>
+    <t>(292008K1.30) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain the relationship between decay heat generation and (a) power level history, (b) power production, and (c) time since reaction shut down</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
   </si>
   <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
-  </si>
-  <si>
-    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209002A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of plant ventilation (HPCS room cooler) </t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(203000A2.18) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295013AA2.02) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Localized heating/stratification</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201005A2.09) Ability to (a) predict the impacts of the following on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6 / 45.8) Test display blinking</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(233000A2.17) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Fuel transfer tube drain tank high/low level (BWR 6)</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295031</t>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295030</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
+    <t>295019</t>
   </si>
   <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295022</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295008</t>
+    <t>295002</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
     <t>217000</t>
   </si>
   <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>239002</t>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>212000</t>
   </si>
   <si>
     <t>215004</t>
   </si>
   <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>271000</t>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>290001</t>
   </si>
   <si>
     <t>216000</t>
   </si>
   <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>226001</t>
+    <t>202002</t>
   </si>
   <si>
     <t>272000</t>
   </si>
   <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
     <t>233000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>201005</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="s">
         <v>112</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1582,7 +1582,7 @@
         <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -1854,7 +1854,7 @@
         <v>3.9</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="s">
         <v>116</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
         <v>112</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
         <v>107</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
